--- a/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_cfim10_results.xlsx
+++ b/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_cfim10_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FAEE3A-AEAA-4D08-813B-9425297A9C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B0DE26-CE40-4135-AA6B-E7250E29D58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="7" xr2:uid="{ACDA33A4-4D9B-483D-A9FA-31FC0D2129DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{30C65F62-0860-4BDE-AFEB-89A80E25A419}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2C60F-511A-4F66-9854-A051C4830421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184F43E4-FD21-488F-A14A-991270497ADF}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1815,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940835E0-3BF9-49E9-8386-D637400ED1B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DF91B2-1D66-4E3C-9475-887414572C5C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2269,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E115F968-7267-45D0-84FA-8ADCFFFF9DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A817A4A-DBA5-4718-B09D-311CF5570948}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2696,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBB37BF-8216-4530-8B19-69A12EB1661C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C193CA-0326-4795-9D0D-B1903AF74284}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3003,7 +3003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900EDBC4-3DC3-47F8-9153-EBEAEA65944C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A0D7BA-3211-4102-9E04-2564DFE81DC4}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3585,7 +3585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3993D752-4B1A-4A4F-9A12-02D2AC4890DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10341B3-579B-4F41-8092-A4332D221D6E}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5650,7 +5650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF292542-2259-4C3E-A9D1-048A331DB635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66161101-CBC7-4993-9E2F-97488F9CFD17}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5965,7 +5965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01432A23-2681-44B7-9876-E2E9EC993002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E15625F-BF53-4B23-94A5-3A15E8EC06A5}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
